--- a/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_5.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_5.xlsx
@@ -454,7 +454,7 @@
         <v>1914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01587104797363281</v>
+        <v>0.0128021240234375</v>
       </c>
     </row>
   </sheetData>
